--- a/database/industries/lastic/pekavir/income/yearly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/yearly/rial.xlsx
@@ -175,6 +175,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -199,6 +204,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -224,6 +244,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -249,6 +284,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -272,6 +322,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -297,6 +362,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -322,6 +402,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -345,6 +440,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -357,25 +467,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/09</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/09</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/09</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/09</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/09</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/09</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/09</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/09</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/09</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/09</t>
         </is>
@@ -392,27 +527,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1392-11-17 (9)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1393-11-21 (13)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1394-11-21 (19)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1395-12-04 (17)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1396-12-03 (13)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1397-12-01 (10)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1398-11-28 (11)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1399-12-02 (8)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1400-12-02 (9)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-04-30 (4)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (6)</t>
         </is>
       </c>
     </row>
@@ -438,6 +598,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -449,18 +624,33 @@
         <v/>
       </c>
       <c r="D11" s="14">
+        <v>1786648</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3096720</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3313701</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2745569</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2841726</v>
+      </c>
+      <c r="I11" s="14">
         <v>3318288</v>
       </c>
-      <c r="E11" s="14">
+      <c r="J11" s="14">
         <v>3274927</v>
       </c>
-      <c r="F11" s="14">
+      <c r="K11" s="14">
         <v>4794400</v>
       </c>
-      <c r="G11" s="14">
+      <c r="L11" s="14">
         <v>10738330</v>
       </c>
-      <c r="H11" s="14">
+      <c r="M11" s="14">
         <v>19899740</v>
       </c>
     </row>
@@ -474,18 +664,33 @@
         <v/>
       </c>
       <c r="D12" s="12">
+        <v>-1448846</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-2228265</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-2230087</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-1872663</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-1971147</v>
+      </c>
+      <c r="I12" s="12">
         <v>-2498824</v>
       </c>
-      <c r="E12" s="12">
+      <c r="J12" s="12">
         <v>-2499746</v>
       </c>
-      <c r="F12" s="12">
+      <c r="K12" s="12">
         <v>-3975010</v>
       </c>
-      <c r="G12" s="12">
+      <c r="L12" s="12">
         <v>-8126096</v>
       </c>
-      <c r="H12" s="12">
+      <c r="M12" s="12">
         <v>-14625731</v>
       </c>
     </row>
@@ -499,18 +704,33 @@
         <v/>
       </c>
       <c r="D13" s="16">
+        <v>337802</v>
+      </c>
+      <c r="E13" s="16">
+        <v>868455</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1083614</v>
+      </c>
+      <c r="G13" s="16">
+        <v>872906</v>
+      </c>
+      <c r="H13" s="16">
+        <v>870579</v>
+      </c>
+      <c r="I13" s="16">
         <v>819464</v>
       </c>
-      <c r="E13" s="16">
+      <c r="J13" s="16">
         <v>775181</v>
       </c>
-      <c r="F13" s="16">
+      <c r="K13" s="16">
         <v>819390</v>
       </c>
-      <c r="G13" s="16">
+      <c r="L13" s="16">
         <v>2612234</v>
       </c>
-      <c r="H13" s="16">
+      <c r="M13" s="16">
         <v>5274009</v>
       </c>
     </row>
@@ -524,18 +744,33 @@
         <v/>
       </c>
       <c r="D14" s="12">
+        <v>-109572</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-158554</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-128280</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-161775</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-283443</v>
+      </c>
+      <c r="I14" s="12">
         <v>-306717</v>
       </c>
-      <c r="E14" s="12">
+      <c r="J14" s="12">
         <v>-281230</v>
       </c>
-      <c r="F14" s="12">
+      <c r="K14" s="12">
         <v>-394391</v>
       </c>
-      <c r="G14" s="12">
+      <c r="L14" s="12">
         <v>-619642</v>
       </c>
-      <c r="H14" s="12">
+      <c r="M14" s="12">
         <v>-1057212</v>
       </c>
     </row>
@@ -558,13 +793,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
-      <c r="G15" s="14">
+      <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="M15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -578,18 +838,33 @@
         <v/>
       </c>
       <c r="D16" s="12">
+        <v>-45943</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6763</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-2012</v>
+      </c>
+      <c r="G16" s="12">
+        <v>427</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-92</v>
+      </c>
+      <c r="I16" s="12">
         <v>487</v>
       </c>
-      <c r="E16" s="12">
+      <c r="J16" s="12">
         <v>-184663</v>
       </c>
-      <c r="F16" s="12">
+      <c r="K16" s="12">
         <v>-121765</v>
       </c>
-      <c r="G16" s="12">
+      <c r="L16" s="12">
         <v>91</v>
       </c>
-      <c r="H16" s="12">
+      <c r="M16" s="12">
         <v>140</v>
       </c>
     </row>
@@ -603,18 +878,33 @@
         <v/>
       </c>
       <c r="D17" s="16">
+        <v>182287</v>
+      </c>
+      <c r="E17" s="16">
+        <v>716664</v>
+      </c>
+      <c r="F17" s="16">
+        <v>953322</v>
+      </c>
+      <c r="G17" s="16">
+        <v>711558</v>
+      </c>
+      <c r="H17" s="16">
+        <v>587044</v>
+      </c>
+      <c r="I17" s="16">
         <v>513234</v>
       </c>
-      <c r="E17" s="16">
+      <c r="J17" s="16">
         <v>309288</v>
       </c>
-      <c r="F17" s="16">
+      <c r="K17" s="16">
         <v>303234</v>
       </c>
-      <c r="G17" s="16">
+      <c r="L17" s="16">
         <v>1992683</v>
       </c>
-      <c r="H17" s="16">
+      <c r="M17" s="16">
         <v>4216937</v>
       </c>
     </row>
@@ -628,18 +918,33 @@
         <v/>
       </c>
       <c r="D18" s="12">
+        <v>-20120</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-38510</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-11848</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-1419</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-16837</v>
+      </c>
+      <c r="I18" s="12">
         <v>-26242</v>
       </c>
-      <c r="E18" s="12">
+      <c r="J18" s="12">
         <v>-18669</v>
       </c>
-      <c r="F18" s="12">
+      <c r="K18" s="12">
         <v>-151133</v>
       </c>
-      <c r="G18" s="12">
+      <c r="L18" s="12">
         <v>-385556</v>
       </c>
-      <c r="H18" s="12">
+      <c r="M18" s="12">
         <v>-962932</v>
       </c>
     </row>
@@ -653,18 +958,33 @@
         <v/>
       </c>
       <c r="D19" s="14">
+        <v>1219</v>
+      </c>
+      <c r="E19" s="14">
+        <v>15317</v>
+      </c>
+      <c r="F19" s="14">
+        <v>133335</v>
+      </c>
+      <c r="G19" s="14">
+        <v>58376</v>
+      </c>
+      <c r="H19" s="14">
+        <v>34699</v>
+      </c>
+      <c r="I19" s="14">
         <v>34443</v>
       </c>
-      <c r="E19" s="14">
+      <c r="J19" s="14">
         <v>16495</v>
       </c>
-      <c r="F19" s="14">
+      <c r="K19" s="14">
         <v>128920</v>
       </c>
-      <c r="G19" s="14">
+      <c r="L19" s="14">
         <v>368740</v>
       </c>
-      <c r="H19" s="14">
+      <c r="M19" s="14">
         <v>155423</v>
       </c>
     </row>
@@ -678,18 +998,33 @@
         <v/>
       </c>
       <c r="D20" s="18">
+        <v>163386</v>
+      </c>
+      <c r="E20" s="18">
+        <v>693471</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1074809</v>
+      </c>
+      <c r="G20" s="18">
+        <v>768515</v>
+      </c>
+      <c r="H20" s="18">
+        <v>604906</v>
+      </c>
+      <c r="I20" s="18">
         <v>521435</v>
       </c>
-      <c r="E20" s="18">
+      <c r="J20" s="18">
         <v>307114</v>
       </c>
-      <c r="F20" s="18">
+      <c r="K20" s="18">
         <v>281021</v>
       </c>
-      <c r="G20" s="18">
+      <c r="L20" s="18">
         <v>1975867</v>
       </c>
-      <c r="H20" s="18">
+      <c r="M20" s="18">
         <v>3409428</v>
       </c>
     </row>
@@ -703,18 +1038,33 @@
         <v/>
       </c>
       <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-179110</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-238789</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-160071</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-163971</v>
+      </c>
+      <c r="I21" s="14">
         <v>-113975</v>
       </c>
-      <c r="E21" s="14">
+      <c r="J21" s="14">
         <v>-65579</v>
       </c>
-      <c r="F21" s="14">
+      <c r="K21" s="14">
         <v>-46124</v>
       </c>
-      <c r="G21" s="14">
+      <c r="L21" s="14">
         <v>-754068</v>
       </c>
-      <c r="H21" s="14">
+      <c r="M21" s="14">
         <v>-499877</v>
       </c>
     </row>
@@ -728,18 +1078,33 @@
         <v/>
       </c>
       <c r="D22" s="18">
+        <v>163386</v>
+      </c>
+      <c r="E22" s="18">
+        <v>514361</v>
+      </c>
+      <c r="F22" s="18">
+        <v>836020</v>
+      </c>
+      <c r="G22" s="18">
+        <v>608444</v>
+      </c>
+      <c r="H22" s="18">
+        <v>440935</v>
+      </c>
+      <c r="I22" s="18">
         <v>407460</v>
       </c>
-      <c r="E22" s="18">
+      <c r="J22" s="18">
         <v>241535</v>
       </c>
-      <c r="F22" s="18">
+      <c r="K22" s="18">
         <v>234897</v>
       </c>
-      <c r="G22" s="18">
+      <c r="L22" s="18">
         <v>1221799</v>
       </c>
-      <c r="H22" s="18">
+      <c r="M22" s="18">
         <v>2909551</v>
       </c>
     </row>
@@ -767,6 +1132,21 @@
       <c r="H23" s="14">
         <v>0</v>
       </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
@@ -778,18 +1158,33 @@
         <v/>
       </c>
       <c r="D24" s="18">
+        <v>163386</v>
+      </c>
+      <c r="E24" s="18">
+        <v>514361</v>
+      </c>
+      <c r="F24" s="18">
+        <v>836020</v>
+      </c>
+      <c r="G24" s="18">
+        <v>608444</v>
+      </c>
+      <c r="H24" s="18">
+        <v>440935</v>
+      </c>
+      <c r="I24" s="18">
         <v>407460</v>
       </c>
-      <c r="E24" s="18">
+      <c r="J24" s="18">
         <v>241535</v>
       </c>
-      <c r="F24" s="18">
+      <c r="K24" s="18">
         <v>234897</v>
       </c>
-      <c r="G24" s="18">
+      <c r="L24" s="18">
         <v>1221799</v>
       </c>
-      <c r="H24" s="18">
+      <c r="M24" s="18">
         <v>2909551</v>
       </c>
     </row>
@@ -803,18 +1198,33 @@
         <v/>
       </c>
       <c r="D25" s="14">
+        <v>817</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2572</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4180</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3042</v>
+      </c>
+      <c r="H25" s="14">
+        <v>630</v>
+      </c>
+      <c r="I25" s="14">
         <v>582</v>
       </c>
-      <c r="E25" s="14">
+      <c r="J25" s="14">
         <v>345</v>
       </c>
-      <c r="F25" s="14">
+      <c r="K25" s="14">
         <v>336</v>
       </c>
-      <c r="G25" s="14">
+      <c r="L25" s="14">
         <v>560</v>
       </c>
-      <c r="H25" s="14">
+      <c r="M25" s="14">
         <v>1335</v>
       </c>
     </row>
@@ -828,18 +1238,33 @@
         <v/>
       </c>
       <c r="D26" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E26" s="12">
+        <v>200000</v>
+      </c>
+      <c r="F26" s="12">
+        <v>200000</v>
+      </c>
+      <c r="G26" s="12">
+        <v>200000</v>
+      </c>
+      <c r="H26" s="12">
         <v>700000</v>
       </c>
-      <c r="E26" s="12">
+      <c r="I26" s="12">
         <v>700000</v>
       </c>
-      <c r="F26" s="12">
+      <c r="J26" s="12">
         <v>700000</v>
       </c>
-      <c r="G26" s="12">
+      <c r="K26" s="12">
+        <v>700000</v>
+      </c>
+      <c r="L26" s="12">
         <v>2180000</v>
       </c>
-      <c r="H26" s="12">
+      <c r="M26" s="12">
         <v>2180000</v>
       </c>
     </row>
@@ -853,18 +1278,33 @@
         <v/>
       </c>
       <c r="D27" s="14">
+        <v>37</v>
+      </c>
+      <c r="E27" s="14">
+        <v>118</v>
+      </c>
+      <c r="F27" s="14">
+        <v>192</v>
+      </c>
+      <c r="G27" s="14">
+        <v>140</v>
+      </c>
+      <c r="H27" s="14">
+        <v>101</v>
+      </c>
+      <c r="I27" s="14">
         <v>93</v>
       </c>
-      <c r="E27" s="14">
+      <c r="J27" s="14">
         <v>55</v>
       </c>
-      <c r="F27" s="14">
+      <c r="K27" s="14">
         <v>54</v>
       </c>
-      <c r="G27" s="14">
+      <c r="L27" s="14">
         <v>280</v>
       </c>
-      <c r="H27" s="14">
+      <c r="M27" s="14">
         <v>667</v>
       </c>
     </row>
@@ -888,6 +1328,21 @@
         <v/>
       </c>
       <c r="H28" s="2">
+        <v/>
+      </c>
+      <c r="I28" s="2">
+        <v/>
+      </c>
+      <c r="J28" s="2">
+        <v/>
+      </c>
+      <c r="K28" s="2">
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <v/>
+      </c>
+      <c r="M28" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/lastic/pekavir/income/yearly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1FD33-8DCB-4A17-83B1-79AD6671E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7F607-FADB-4CE5-AC6A-2864B5072ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکویر-کویر تایر</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1396/09</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -67,27 +49,12 @@
     <t>12 ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1392-11-17 (9)</t>
-  </si>
-  <si>
-    <t>1393-11-21 (13)</t>
-  </si>
-  <si>
-    <t>1394-11-21 (19)</t>
-  </si>
-  <si>
-    <t>1395-12-04 (17)</t>
-  </si>
-  <si>
-    <t>1396-12-03 (13)</t>
-  </si>
-  <si>
-    <t>1397-12-01 (10)</t>
-  </si>
-  <si>
     <t>1398-11-28 (11)</t>
   </si>
   <si>
@@ -97,7 +64,10 @@
     <t>1400-12-02 (9)</t>
   </si>
   <si>
-    <t>1401-07-30 (6)</t>
+    <t>1401-11-30 (7)</t>
+  </si>
+  <si>
+    <t>1401-11-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,447 +720,262 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1786648</v>
+        <v>3274927</v>
       </c>
       <c r="E11" s="13">
-        <v>3096720</v>
+        <v>4794400</v>
       </c>
       <c r="F11" s="13">
-        <v>3313701</v>
+        <v>10738330</v>
       </c>
       <c r="G11" s="13">
-        <v>2745569</v>
+        <v>19899740</v>
       </c>
       <c r="H11" s="13">
-        <v>2841726</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3318288</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3274927</v>
-      </c>
-      <c r="K11" s="13">
-        <v>4794400</v>
-      </c>
-      <c r="L11" s="13">
-        <v>10738330</v>
-      </c>
-      <c r="M11" s="13">
-        <v>19899740</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>26639711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1448846</v>
+        <v>-2499746</v>
       </c>
       <c r="E12" s="11">
-        <v>-2228265</v>
+        <v>-3975010</v>
       </c>
       <c r="F12" s="11">
-        <v>-2230087</v>
+        <v>-8126096</v>
       </c>
       <c r="G12" s="11">
-        <v>-1872663</v>
+        <v>-14625731</v>
       </c>
       <c r="H12" s="11">
-        <v>-1971147</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-2498824</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-2499746</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-3975010</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-8126096</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-14625731</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-21892839</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>337802</v>
+        <v>775181</v>
       </c>
       <c r="E13" s="15">
-        <v>868455</v>
+        <v>819390</v>
       </c>
       <c r="F13" s="15">
-        <v>1083614</v>
+        <v>2612234</v>
       </c>
       <c r="G13" s="15">
-        <v>872906</v>
+        <v>5274009</v>
       </c>
       <c r="H13" s="15">
-        <v>870579</v>
-      </c>
-      <c r="I13" s="15">
-        <v>819464</v>
-      </c>
-      <c r="J13" s="15">
-        <v>775181</v>
-      </c>
-      <c r="K13" s="15">
-        <v>819390</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2612234</v>
-      </c>
-      <c r="M13" s="15">
-        <v>5274009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4746872</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-109572</v>
+        <v>-281230</v>
       </c>
       <c r="E14" s="11">
-        <v>-158554</v>
+        <v>-394391</v>
       </c>
       <c r="F14" s="11">
-        <v>-128280</v>
+        <v>-619642</v>
       </c>
       <c r="G14" s="11">
-        <v>-161775</v>
+        <v>-1057212</v>
       </c>
       <c r="H14" s="11">
-        <v>-283443</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-306717</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-281230</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-394391</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-619642</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-1057212</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1697612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="L15" s="13">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-45943</v>
+        <v>-184663</v>
       </c>
       <c r="E16" s="11">
-        <v>6763</v>
+        <v>-121765</v>
       </c>
       <c r="F16" s="11">
-        <v>-2012</v>
+        <v>91</v>
       </c>
       <c r="G16" s="11">
-        <v>427</v>
+        <v>138677</v>
       </c>
       <c r="H16" s="11">
-        <v>-92</v>
-      </c>
-      <c r="I16" s="11">
-        <v>487</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-184663</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-121765</v>
-      </c>
-      <c r="L16" s="11">
-        <v>91</v>
-      </c>
-      <c r="M16" s="11">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>337945</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>182287</v>
+        <v>309288</v>
       </c>
       <c r="E17" s="15">
-        <v>716664</v>
+        <v>303234</v>
       </c>
       <c r="F17" s="15">
-        <v>953322</v>
+        <v>1992683</v>
       </c>
       <c r="G17" s="15">
-        <v>711558</v>
+        <v>4355474</v>
       </c>
       <c r="H17" s="15">
-        <v>587044</v>
-      </c>
-      <c r="I17" s="15">
-        <v>513234</v>
-      </c>
-      <c r="J17" s="15">
-        <v>309288</v>
-      </c>
-      <c r="K17" s="15">
-        <v>303234</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1992683</v>
-      </c>
-      <c r="M17" s="15">
-        <v>4216937</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3387205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-20120</v>
+        <v>-18669</v>
       </c>
       <c r="E18" s="11">
-        <v>-38510</v>
+        <v>-151133</v>
       </c>
       <c r="F18" s="11">
-        <v>-11848</v>
+        <v>-385556</v>
       </c>
       <c r="G18" s="11">
-        <v>-1419</v>
+        <v>-962932</v>
       </c>
       <c r="H18" s="11">
-        <v>-16837</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-26242</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-18669</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-151133</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-385556</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-962932</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1463741</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1219</v>
+        <v>16495</v>
       </c>
       <c r="E19" s="13">
-        <v>15317</v>
+        <v>128920</v>
       </c>
       <c r="F19" s="13">
-        <v>133335</v>
+        <v>368740</v>
       </c>
       <c r="G19" s="13">
-        <v>58376</v>
+        <v>17210</v>
       </c>
       <c r="H19" s="13">
-        <v>34699</v>
-      </c>
-      <c r="I19" s="13">
-        <v>34443</v>
-      </c>
-      <c r="J19" s="13">
-        <v>16495</v>
-      </c>
-      <c r="K19" s="13">
-        <v>128920</v>
-      </c>
-      <c r="L19" s="13">
-        <v>368740</v>
-      </c>
-      <c r="M19" s="13">
-        <v>155423</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>49090</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>163386</v>
+        <v>307114</v>
       </c>
       <c r="E20" s="17">
-        <v>693471</v>
+        <v>281021</v>
       </c>
       <c r="F20" s="17">
-        <v>1074809</v>
+        <v>1975867</v>
       </c>
       <c r="G20" s="17">
-        <v>768515</v>
+        <v>3409752</v>
       </c>
       <c r="H20" s="17">
-        <v>604906</v>
-      </c>
-      <c r="I20" s="17">
-        <v>521435</v>
-      </c>
-      <c r="J20" s="17">
-        <v>307114</v>
-      </c>
-      <c r="K20" s="17">
-        <v>281021</v>
-      </c>
-      <c r="L20" s="17">
-        <v>1975867</v>
-      </c>
-      <c r="M20" s="17">
-        <v>3409428</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1972554</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-65579</v>
       </c>
       <c r="E21" s="13">
-        <v>-179110</v>
+        <v>-46124</v>
       </c>
       <c r="F21" s="13">
-        <v>-238789</v>
+        <v>-754068</v>
       </c>
       <c r="G21" s="13">
-        <v>-160071</v>
+        <v>-499877</v>
       </c>
       <c r="H21" s="13">
-        <v>-163971</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-113975</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-65579</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-46124</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-754068</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-499877</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-371203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>163386</v>
+        <v>241535</v>
       </c>
       <c r="E22" s="17">
-        <v>514361</v>
+        <v>234897</v>
       </c>
       <c r="F22" s="17">
-        <v>836020</v>
+        <v>1221799</v>
       </c>
       <c r="G22" s="17">
-        <v>608444</v>
+        <v>2909875</v>
       </c>
       <c r="H22" s="17">
-        <v>440935</v>
-      </c>
-      <c r="I22" s="17">
-        <v>407460</v>
-      </c>
-      <c r="J22" s="17">
-        <v>241535</v>
-      </c>
-      <c r="K22" s="17">
-        <v>234897</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1221799</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2909551</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1601351</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1273,167 +993,92 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>163386</v>
+        <v>241535</v>
       </c>
       <c r="E24" s="17">
-        <v>514361</v>
+        <v>234897</v>
       </c>
       <c r="F24" s="17">
-        <v>836020</v>
+        <v>1221799</v>
       </c>
       <c r="G24" s="17">
-        <v>608444</v>
+        <v>2909875</v>
       </c>
       <c r="H24" s="17">
-        <v>440935</v>
-      </c>
-      <c r="I24" s="17">
-        <v>407460</v>
-      </c>
-      <c r="J24" s="17">
-        <v>241535</v>
-      </c>
-      <c r="K24" s="17">
-        <v>234897</v>
-      </c>
-      <c r="L24" s="17">
-        <v>1221799</v>
-      </c>
-      <c r="M24" s="17">
-        <v>2909551</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1601351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>817</v>
+        <v>345</v>
       </c>
       <c r="E25" s="13">
-        <v>2572</v>
+        <v>336</v>
       </c>
       <c r="F25" s="13">
-        <v>4180</v>
+        <v>560</v>
       </c>
       <c r="G25" s="13">
-        <v>3042</v>
+        <v>1335</v>
       </c>
       <c r="H25" s="13">
-        <v>630</v>
-      </c>
-      <c r="I25" s="13">
-        <v>582</v>
-      </c>
-      <c r="J25" s="13">
-        <v>345</v>
-      </c>
-      <c r="K25" s="13">
-        <v>336</v>
-      </c>
-      <c r="L25" s="13">
-        <v>560</v>
-      </c>
-      <c r="M25" s="13">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="E26" s="11">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="F26" s="11">
-        <v>200000</v>
+        <v>2180000</v>
       </c>
       <c r="G26" s="11">
-        <v>200000</v>
+        <v>2180000</v>
       </c>
       <c r="H26" s="11">
-        <v>700000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>700000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>700000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>700000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>2180000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>2180000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4360000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
         <v>37</v>
       </c>
       <c r="E27" s="13">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="F27" s="13">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G27" s="13">
-        <v>140</v>
+        <v>445</v>
       </c>
       <c r="H27" s="13">
-        <v>101</v>
-      </c>
-      <c r="I27" s="13">
-        <v>93</v>
-      </c>
-      <c r="J27" s="13">
-        <v>55</v>
-      </c>
-      <c r="K27" s="13">
-        <v>54</v>
-      </c>
-      <c r="L27" s="13">
-        <v>280</v>
-      </c>
-      <c r="M27" s="13">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/income/yearly/rial.xlsx
+++ b/database/industries/lastic/pekavir/income/yearly/rial.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7F607-FADB-4CE5-AC6A-2864B5072ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,10 +586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,7 +1055,8 @@
         <v>2180000</v>
       </c>
       <c r="H26" s="11">
-        <v>4360000</v>
+        <f>4360000*1.5</f>
+        <v>6540000</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
